--- a/SoundToDo.xlsx
+++ b/SoundToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughe\AppData\Roaming\.minecraft\resourcepacks\8bit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B9420EF-6579-48CB-8FC3-5195A6AF427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9AFD33-C23E-47C4-B1CB-87B1A202263D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{0784692F-AAC4-41F3-8FDF-528C01890AB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0784692F-AAC4-41F3-8FDF-528C01890AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="152">
   <si>
     <t>Zombie</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Door</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>UI</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>Sand</t>
   </si>
   <si>
-    <t>Vine</t>
-  </si>
-  <si>
     <t>Wax</t>
   </si>
   <si>
@@ -487,6 +481,18 @@
   </si>
   <si>
     <t>Deactivate</t>
+  </si>
+  <si>
+    <t>Mud Mang Roots</t>
+  </si>
+  <si>
+    <t>Leaves</t>
+  </si>
+  <si>
+    <t>Vines</t>
+  </si>
+  <si>
+    <t>Item Pickup</t>
   </si>
 </sst>
 </file>
@@ -547,8 +553,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860EC8D9-E5E7-4F7C-95C9-48163BD097DB}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,16 +920,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
         <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -941,10 +947,10 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -961,10 +967,10 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
@@ -984,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
         <v>2</v>
@@ -1008,11 +1014,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H6" s="4" t="s">
-        <v>119</v>
+      <c r="H6" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1029,135 +1035,135 @@
         <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8" s="1"/>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
+      <c r="B9" s="1"/>
       <c r="L9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
         <v>112</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
+      <c r="E12" t="s">
+        <v>42</v>
       </c>
       <c r="L12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="L13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="L14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>68</v>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1176,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1183,7 +1189,7 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>23</v>
@@ -1192,24 +1198,21 @@
         <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>89</v>
+      <c r="P1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -1218,19 +1221,16 @@
       <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>64</v>
+      <c r="O2" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1239,22 +1239,19 @@
       <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>65</v>
+      <c r="O3" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -1262,38 +1259,41 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s">
         <v>13</v>
@@ -1301,107 +1301,107 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>63</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E14" s="1"/>
       <c r="G14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M14" t="s">
         <v>7</v>
@@ -1412,70 +1412,70 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M16" t="s">
         <v>12</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
@@ -1484,29 +1484,29 @@
         <v>21</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M20" t="s">
         <v>22</v>
@@ -1516,25 +1516,28 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>117</v>
+      <c r="A21" t="s">
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P22" t="s">
         <v>22</v>
@@ -1542,33 +1545,33 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/SoundToDo.xlsx
+++ b/SoundToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughe\AppData\Roaming\.minecraft\resourcepacks\8bit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9AFD33-C23E-47C4-B1CB-87B1A202263D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF7E39-6A2B-4033-B154-1CA8884AA680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0784692F-AAC4-41F3-8FDF-528C01890AB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0784692F-AAC4-41F3-8FDF-528C01890AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="153">
   <si>
     <t>Zombie</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Cactus</t>
   </si>
   <si>
-    <t>Chain</t>
-  </si>
-  <si>
     <t>Chest</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>Gravel</t>
   </si>
   <si>
-    <t>Cobweb (Softer)</t>
-  </si>
-  <si>
     <t>Click</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>Dripstone</t>
   </si>
   <si>
-    <t>Powdered Snow (Softer)</t>
-  </si>
-  <si>
     <t>Bucket</t>
   </si>
   <si>
@@ -306,9 +297,6 @@
     <t>Drink (&amp; Honey)</t>
   </si>
   <si>
-    <t>Glass (&amp; Ominious)</t>
-  </si>
-  <si>
     <t>Shield Block</t>
   </si>
   <si>
@@ -486,13 +474,28 @@
     <t>Mud Mang Roots</t>
   </si>
   <si>
-    <t>Leaves</t>
-  </si>
-  <si>
     <t>Vines</t>
   </si>
   <si>
     <t>Item Pickup</t>
+  </si>
+  <si>
+    <t>Ores</t>
+  </si>
+  <si>
+    <t>Chain (p)</t>
+  </si>
+  <si>
+    <t>Cobweb (s)</t>
+  </si>
+  <si>
+    <t>Powd. Snow (s)</t>
+  </si>
+  <si>
+    <t>Pot (p)</t>
+  </si>
+  <si>
+    <t>Glass (Omin./Pot)</t>
   </si>
 </sst>
 </file>
@@ -891,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860EC8D9-E5E7-4F7C-95C9-48163BD097DB}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,16 +923,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
         <v>54</v>
-      </c>
-      <c r="M1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -947,10 +950,10 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
         <v>72</v>
-      </c>
-      <c r="L2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -967,10 +970,10 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" t="s">
         <v>73</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
@@ -990,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
         <v>2</v>
@@ -1015,10 +1018,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H6" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1035,7 +1038,7 @@
         <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1043,8 +1046,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1052,56 +1057,58 @@
         <v>17</v>
       </c>
       <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>110</v>
+      <c r="C10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>111</v>
+      <c r="D11" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" t="s">
         <v>24</v>
@@ -1109,62 +1116,66 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
+        <v>144</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>60</v>
+      <c r="B16" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1175,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165EBBC2-699B-4181-93B7-B077CFDCE99B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,22 +1209,23 @@
         <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s">
         <v>18</v>
       </c>
       <c r="P1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
+      <c r="E2" s="1"/>
       <c r="G2" t="s">
         <v>24</v>
       </c>
@@ -1222,16 +1234,18 @@
         <v>21</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="D3" t="s">
         <v>29</v>
       </c>
+      <c r="E3" s="1"/>
       <c r="G3" t="s">
         <v>13</v>
       </c>
@@ -1240,19 +1254,22 @@
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="D4" t="s">
         <v>30</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="H4" s="1"/>
       <c r="K4" t="s">
         <v>25</v>
       </c>
@@ -1260,40 +1277,43 @@
         <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="Q6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s">
         <v>13</v>
@@ -1301,107 +1321,107 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E14" s="1"/>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s">
         <v>7</v>
@@ -1412,70 +1432,70 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M16" t="s">
         <v>12</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
@@ -1484,29 +1504,30 @@
         <v>21</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M20" t="s">
         <v>22</v>
@@ -1517,27 +1538,28 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P22" t="s">
         <v>22</v>
@@ -1545,23 +1567,23 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">

--- a/SoundToDo.xlsx
+++ b/SoundToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughe\AppData\Roaming\.minecraft\resourcepacks\8bit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF7E39-6A2B-4033-B154-1CA8884AA680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D9EA6-C7F9-4808-8270-0FB224A40D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0784692F-AAC4-41F3-8FDF-528C01890AB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0784692F-AAC4-41F3-8FDF-528C01890AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="157">
   <si>
     <t>Zombie</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Copper</t>
   </si>
   <si>
-    <t>Door</t>
-  </si>
-  <si>
     <t>UI</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>No Insert</t>
   </si>
   <si>
-    <t>Shatter</t>
-  </si>
-  <si>
     <t>Gravel</t>
   </si>
   <si>
@@ -189,9 +183,6 @@
     <t>Ladder</t>
   </si>
   <si>
-    <t>Trapdoor</t>
-  </si>
-  <si>
     <t>Mang Roots</t>
   </si>
   <si>
@@ -480,9 +471,6 @@
     <t>Item Pickup</t>
   </si>
   <si>
-    <t>Ores</t>
-  </si>
-  <si>
     <t>Chain (p)</t>
   </si>
   <si>
@@ -495,7 +483,31 @@
     <t>Pot (p)</t>
   </si>
   <si>
-    <t>Glass (Omin./Pot)</t>
+    <t>Spore Blossom (p)</t>
+  </si>
+  <si>
+    <t>Glass (Omin./Pot(p))</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>C. Door</t>
+  </si>
+  <si>
+    <t>C. Trapdoor (p)</t>
+  </si>
+  <si>
+    <t>Water In</t>
+  </si>
+  <si>
+    <t>Water Out</t>
+  </si>
+  <si>
+    <t>Water Loop</t>
+  </si>
+  <si>
+    <t>Det. Player</t>
   </si>
 </sst>
 </file>
@@ -552,12 +564,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860EC8D9-E5E7-4F7C-95C9-48163BD097DB}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,16 +934,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -950,10 +961,10 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" t="s">
         <v>69</v>
-      </c>
-      <c r="L2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -970,10 +981,10 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
         <v>70</v>
-      </c>
-      <c r="L3" t="s">
-        <v>73</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
@@ -993,7 +1004,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
         <v>2</v>
@@ -1018,10 +1029,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H6" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1038,7 +1049,7 @@
         <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1048,8 +1059,9 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1059,56 +1071,57 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
+        <v>103</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
+        <v>104</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
+        <v>105</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="L12" t="s">
         <v>24</v>
@@ -1116,66 +1129,68 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" t="s">
         <v>147</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
+      <c r="B19" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1186,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165EBBC2-699B-4181-93B7-B077CFDCE99B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,30 +1215,30 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
         <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="L1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="P1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" t="s">
@@ -1233,17 +1248,18 @@
       <c r="J2" t="s">
         <v>21</v>
       </c>
+      <c r="K2" s="1"/>
       <c r="O2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1"/>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1"/>
       <c r="G3" t="s">
@@ -1253,67 +1269,62 @@
       <c r="J3" t="s">
         <v>22</v>
       </c>
+      <c r="K3" s="1"/>
       <c r="O3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
+      <c r="K4" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1"/>
       <c r="Q6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1"/>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s">
         <v>13</v>
@@ -1321,107 +1332,106 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="K11" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1"/>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M14" t="s">
         <v>7</v>
@@ -1432,70 +1442,77 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M16" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="G18" t="s">
+        <v>153</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
@@ -1503,97 +1520,103 @@
       <c r="M18" t="s">
         <v>21</v>
       </c>
+      <c r="N18" s="1"/>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1"/>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="G19" t="s">
+        <v>154</v>
       </c>
       <c r="M19" t="s">
-        <v>116</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N19" s="1"/>
       <c r="P19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
+        <v>155</v>
       </c>
       <c r="M20" t="s">
         <v>22</v>
       </c>
+      <c r="N20" s="1"/>
       <c r="P20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B22" s="1"/>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M22" t="s">
-        <v>119</v>
-      </c>
-      <c r="P22" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/SoundToDo.xlsx
+++ b/SoundToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughe\AppData\Roaming\.minecraft\resourcepacks\8bit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D9EA6-C7F9-4808-8270-0FB224A40D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D00C6A-0B99-4513-858F-CA5CAF8DD390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0784692F-AAC4-41F3-8FDF-528C01890AB1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="156">
   <si>
     <t>Zombie</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Break</t>
   </si>
   <si>
-    <t>Barrel</t>
-  </si>
-  <si>
     <t>Grass</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Insert</t>
   </si>
   <si>
-    <t>No Insert</t>
-  </si>
-  <si>
     <t>Gravel</t>
   </si>
   <si>
@@ -282,9 +276,6 @@
     <t>Climb Vine</t>
   </si>
   <si>
-    <t>Bottle</t>
-  </si>
-  <si>
     <t>Drink (&amp; Honey)</t>
   </si>
   <si>
@@ -324,12 +315,6 @@
     <t>Load Mid</t>
   </si>
   <si>
-    <t>Quick x3</t>
-  </si>
-  <si>
-    <t>Pitch</t>
-  </si>
-  <si>
     <t>Load End</t>
   </si>
   <si>
@@ -339,9 +324,6 @@
     <t>Tool Break</t>
   </si>
   <si>
-    <t>Shear (&amp; Berries)</t>
-  </si>
-  <si>
     <t>Burp</t>
   </si>
   <si>
@@ -508,13 +490,28 @@
   </si>
   <si>
     <t>Det. Player</t>
+  </si>
+  <si>
+    <t>Barrel (p)</t>
+  </si>
+  <si>
+    <t>Furnace Crackle</t>
+  </si>
+  <si>
+    <t>Bottle (p)</t>
+  </si>
+  <si>
+    <t>Quick x3 (p)</t>
+  </si>
+  <si>
+    <t>Shear (Berries (p))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,8 +519,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,6 +542,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,11 +579,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,7 +925,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,16 +953,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
         <v>49</v>
-      </c>
-      <c r="M1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -961,10 +980,10 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -981,10 +1000,10 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
@@ -1004,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
         <v>2</v>
@@ -1029,18 +1048,18 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H6" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -1049,7 +1068,7 @@
         <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1061,7 +1080,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1073,123 +1092,123 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="L14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1199,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165EBBC2-699B-4181-93B7-B077CFDCE99B}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,54 +1231,49 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" t="s">
-        <v>81</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1"/>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="O2" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1"/>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1"/>
       <c r="G3" t="s">
@@ -1267,356 +1281,387 @@
       </c>
       <c r="H3" s="1"/>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="O3" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="H4" s="6"/>
       <c r="K4" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
+      </c>
+      <c r="L4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1"/>
       <c r="Q6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1"/>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s">
-        <v>13</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
+      <c r="E8" s="7"/>
       <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="N8" s="1"/>
       <c r="P8" t="s">
-        <v>90</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s">
-        <v>91</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>99</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="K10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1"/>
       <c r="K11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" t="s">
-        <v>92</v>
-      </c>
-      <c r="N13" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="D14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" t="s">
-        <v>7</v>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="G15" t="s">
         <v>122</v>
       </c>
-      <c r="G15" t="s">
-        <v>129</v>
-      </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M15" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B16" s="4"/>
       <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="G16" t="s">
         <v>123</v>
       </c>
-      <c r="G16" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" t="s">
-        <v>96</v>
+      <c r="J16" t="s">
+        <v>91</v>
       </c>
       <c r="M16" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="G17" t="s">
         <v>124</v>
       </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" t="s">
-        <v>97</v>
+      <c r="J17" s="5"/>
+      <c r="K17" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="M17" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B18" s="1"/>
       <c r="D18" t="s">
-        <v>126</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E18" s="4"/>
       <c r="G18" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K18" s="1"/>
       <c r="M18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="1"/>
+        <v>109</v>
+      </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B19" s="1"/>
       <c r="D19" t="s">
-        <v>127</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="G19" t="s">
-        <v>154</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="1"/>
       <c r="M19" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="N19" s="1"/>
       <c r="P19" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
         <v>121</v>
       </c>
+      <c r="E20" s="4"/>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="N20" s="1"/>
       <c r="P20" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>115</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="G21" t="s">
+        <v>149</v>
       </c>
       <c r="M21" t="s">
-        <v>119</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="N21" s="1"/>
       <c r="P21" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B22" s="1"/>
       <c r="D22" t="s">
-        <v>132</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E22" s="5"/>
       <c r="M22" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="P22" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="D23" t="s">
-        <v>133</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="M23" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>134</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="M24" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="M25" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/SoundToDo.xlsx
+++ b/SoundToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughe\AppData\Roaming\.minecraft\resourcepacks\8bit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D00C6A-0B99-4513-858F-CA5CAF8DD390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2748F310-6470-410C-919D-5A861CB16160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0784692F-AAC4-41F3-8FDF-528C01890AB1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="167">
   <si>
     <t>Zombie</t>
   </si>
@@ -505,6 +505,39 @@
   </si>
   <si>
     <t>Shear (Berries (p))</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Amethyst (p)</t>
+  </si>
+  <si>
+    <t>Spyglass</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Stop Using</t>
+  </si>
+  <si>
+    <t>Cackle</t>
+  </si>
+  <si>
+    <t>(Axe)</t>
+  </si>
+  <si>
+    <t>(No cooldown)</t>
+  </si>
+  <si>
+    <t>(Sword)</t>
+  </si>
+  <si>
+    <t>(Jump)</t>
+  </si>
+  <si>
+    <t>(?)</t>
   </si>
 </sst>
 </file>
@@ -526,7 +559,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,18 +575,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,15 +600,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,7 +944,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,6 +1214,9 @@
       <c r="B16" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="C16" s="5" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
@@ -1218,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165EBBC2-699B-4181-93B7-B077CFDCE99B}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,7 +1251,7 @@
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -1245,10 +1267,14 @@
       <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -1264,10 +1290,14 @@
         <v>20</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1284,10 +1314,16 @@
         <v>21</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1299,7 +1335,7 @@
       <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="1"/>
       <c r="K4" s="1" t="s">
         <v>146</v>
       </c>
@@ -1307,7 +1343,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1316,7 +1352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -1325,7 +1361,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -1347,14 +1383,14 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="4"/>
       <c r="G8" s="2" t="s">
         <v>42</v>
       </c>
@@ -1371,13 +1407,14 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E9" s="1"/>
       <c r="G9" s="2" t="s">
         <v>132</v>
       </c>
@@ -1388,16 +1425,17 @@
       <c r="M9" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="N9" s="1"/>
       <c r="P9" t="s">
         <v>13</v>
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="1"/>
       <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1405,11 +1443,11 @@
       <c r="K10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1418,7 +1456,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -1426,12 +1464,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
@@ -1439,20 +1477,20 @@
       <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>108</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>89</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>105</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -1460,64 +1498,63 @@
         <v>114</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>122</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>90</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>7</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="1"/>
       <c r="D16" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="G16" t="s">
+      <c r="E16" s="1"/>
+      <c r="H16" t="s">
         <v>123</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>91</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>106</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D17" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="G17" t="s">
+      <c r="E17" s="1"/>
+      <c r="H17" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>150</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>96</v>
       </c>
@@ -1525,22 +1562,22 @@
       <c r="D18" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="G18" t="s">
+      <c r="E18" s="1"/>
+      <c r="H18" t="s">
         <v>7</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>92</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="M18" t="s">
+      <c r="L18" s="1"/>
+      <c r="N18" t="s">
         <v>109</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
@@ -1548,61 +1585,63 @@
       <c r="D19" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="G19" t="s">
+      <c r="E19" s="1"/>
+      <c r="H19" t="s">
         <v>147</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="M19" t="s">
+      <c r="L19" s="1"/>
+      <c r="N19" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="P19" t="s">
+      <c r="O19" s="1"/>
+      <c r="Q19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D20" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="G20" t="s">
+      <c r="E20" s="1"/>
+      <c r="H20" t="s">
         <v>148</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>107</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="P20" t="s">
+      <c r="O20" s="1"/>
+      <c r="Q20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>102</v>
       </c>
       <c r="D21" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" t="s">
         <v>149</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="P21" t="s">
+      <c r="O21" s="1"/>
+      <c r="Q21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -1610,56 +1649,65 @@
       <c r="D22" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="M22" t="s">
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+      <c r="N22" t="s">
         <v>113</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>152</v>
       </c>
       <c r="D23" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="M23" t="s">
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="N23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="M24" t="s">
+      <c r="F24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
       <c r="D25" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="M25" t="s">
+      <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="N25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>31</v>
       </c>

--- a/SoundToDo.xlsx
+++ b/SoundToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughe\AppData\Roaming\.minecraft\resourcepacks\8bit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2748F310-6470-410C-919D-5A861CB16160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18654B3F-0E0C-4026-828B-8B4A549733FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0784692F-AAC4-41F3-8FDF-528C01890AB1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="169">
   <si>
     <t>Zombie</t>
   </si>
@@ -423,9 +423,6 @@
     <t xml:space="preserve"> Crit</t>
   </si>
   <si>
-    <t xml:space="preserve"> Knockback</t>
-  </si>
-  <si>
     <t>Vault</t>
   </si>
   <si>
@@ -538,6 +535,15 @@
   </si>
   <si>
     <t>(?)</t>
+  </si>
+  <si>
+    <t>Knockback</t>
+  </si>
+  <si>
+    <t>Bad Omen</t>
+  </si>
+  <si>
+    <t>Trial Omen</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1125,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>97</v>
@@ -1133,7 +1139,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -1167,7 +1173,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>105</v>
@@ -1187,7 +1193,7 @@
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>45</v>
@@ -1204,18 +1210,18 @@
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -1225,12 +1231,12 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1249,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,21 +1268,21 @@
         <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L1" t="s">
         <v>36</v>
       </c>
       <c r="O1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -1291,10 +1297,10 @@
       </c>
       <c r="K2" s="1"/>
       <c r="N2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1315,7 +1321,7 @@
       </c>
       <c r="K3" s="1"/>
       <c r="N3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O3" s="1"/>
       <c r="Q3" t="s">
@@ -1337,10 +1343,10 @@
       </c>
       <c r="H4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1416,7 +1422,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" s="1"/>
       <c r="J9" t="s">
@@ -1440,9 +1446,11 @@
         <v>38</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="1" t="s">
         <v>82</v>
       </c>
@@ -1452,7 +1460,8 @@
         <v>80</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1460,8 +1469,9 @@
       <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>153</v>
+      <c r="J12" s="2"/>
+      <c r="K12" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1487,7 +1497,7 @@
         <v>105</v>
       </c>
       <c r="R14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -1530,12 +1540,12 @@
         <v>106</v>
       </c>
       <c r="Q16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
         <v>117</v>
@@ -1544,14 +1554,15 @@
       <c r="H17" t="s">
         <v>124</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>154</v>
+      <c r="K17" s="2"/>
+      <c r="L17" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1574,7 +1585,7 @@
         <v>109</v>
       </c>
       <c r="Q18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,7 +1598,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s">
         <v>23</v>
@@ -1598,7 +1609,7 @@
       </c>
       <c r="O19" s="1"/>
       <c r="Q19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,7 +1621,7 @@
       </c>
       <c r="E20" s="1"/>
       <c r="H20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N20" t="s">
         <v>107</v>
@@ -1627,11 +1638,12 @@
       <c r="D21" t="s">
         <v>115</v>
       </c>
+      <c r="E21" s="1"/>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N21" t="s">
         <v>21</v>
@@ -1643,14 +1655,15 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" s="1"/>
       <c r="D22" t="s">
         <v>125</v>
       </c>
+      <c r="E22" s="1"/>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N22" t="s">
         <v>113</v>
@@ -1661,11 +1674,12 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" t="s">
         <v>164</v>
       </c>
@@ -1674,23 +1688,30 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>167</v>
+      </c>
       <c r="D24" t="s">
-        <v>127</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="D25" t="s">
-        <v>128</v>
+      <c r="A25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N25" t="s">
         <v>112</v>
@@ -1711,6 +1732,7 @@
       <c r="D28" t="s">
         <v>31</v>
       </c>
+      <c r="E28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
